--- a/INTLINE/data/142/STANOR/10721 General government. Revenue and expenditure.xlsx
+++ b/INTLINE/data/142/STANOR/10721 General government. Revenue and expenditure.xlsx
@@ -340,7 +340,7 @@
     <x:t>Revenue and expenditure:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220303 08:00</x:t>
+    <x:t>20220607 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1046,7 +1046,7 @@
         <x:v>1544807</x:v>
       </x:c>
       <x:c r="AC5" s="3" t="n">
-        <x:v>2008746</x:v>
+        <x:v>2021104</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:29">
@@ -1132,7 +1132,7 @@
         <x:v>307423</x:v>
       </x:c>
       <x:c r="AC6" s="3" t="n">
-        <x:v>608029</x:v>
+        <x:v>616603</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:29">
@@ -1218,7 +1218,7 @@
         <x:v>428137</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>455443</x:v>
+        <x:v>455250</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:29">
@@ -1390,7 +1390,7 @@
         <x:v>383098</x:v>
       </x:c>
       <x:c r="AC9" s="3" t="n">
-        <x:v>402387</x:v>
+        <x:v>402443</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:29">
@@ -1476,7 +1476,7 @@
         <x:v>371920</x:v>
       </x:c>
       <x:c r="AC10" s="3" t="n">
-        <x:v>485232</x:v>
+        <x:v>488144</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:29">
@@ -1562,7 +1562,7 @@
         <x:v>88529</x:v>
       </x:c>
       <x:c r="AC11" s="3" t="n">
-        <x:v>68106</x:v>
+        <x:v>68223</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:29">
@@ -1648,7 +1648,7 @@
         <x:v>81140</x:v>
       </x:c>
       <x:c r="AC12" s="3" t="n">
-        <x:v>63226</x:v>
+        <x:v>63343</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:29">
@@ -1820,7 +1820,7 @@
         <x:v>202375</x:v>
       </x:c>
       <x:c r="AC14" s="3" t="n">
-        <x:v>220995</x:v>
+        <x:v>221113</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:29">
@@ -1906,7 +1906,7 @@
         <x:v>187322</x:v>
       </x:c>
       <x:c r="AC15" s="3" t="n">
-        <x:v>210477</x:v>
+        <x:v>210595</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:29">
@@ -2164,7 +2164,7 @@
         <x:v>59100</x:v>
       </x:c>
       <x:c r="AC18" s="3" t="n">
-        <x:v>179277</x:v>
+        <x:v>181954</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:29">
@@ -2250,7 +2250,7 @@
         <x:v>59075</x:v>
       </x:c>
       <x:c r="AC19" s="3" t="n">
-        <x:v>179260</x:v>
+        <x:v>181937</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:29">
@@ -2938,7 +2938,7 @@
         <x:v>42960</x:v>
       </x:c>
       <x:c r="AC27" s="3" t="n">
-        <x:v>45267</x:v>
+        <x:v>45721</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:29">
@@ -3024,7 +3024,7 @@
         <x:v>11204</x:v>
       </x:c>
       <x:c r="AC28" s="3" t="n">
-        <x:v>12340</x:v>
+        <x:v>12895</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:29">
@@ -3110,7 +3110,7 @@
         <x:v>2438</x:v>
       </x:c>
       <x:c r="AC29" s="3" t="n">
-        <x:v>2647</x:v>
+        <x:v>2648</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:29">
@@ -3282,7 +3282,7 @@
         <x:v>2438</x:v>
       </x:c>
       <x:c r="AC31" s="3" t="n">
-        <x:v>2647</x:v>
+        <x:v>2648</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:29">
@@ -3540,7 +3540,7 @@
         <x:v>2568</x:v>
       </x:c>
       <x:c r="AC34" s="3" t="n">
-        <x:v>2548</x:v>
+        <x:v>2801</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:29">
@@ -3626,7 +3626,7 @@
         <x:v>1656</x:v>
       </x:c>
       <x:c r="AC35" s="3" t="n">
-        <x:v>1485</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:29">
@@ -3798,7 +3798,7 @@
         <x:v>1571947</x:v>
       </x:c>
       <x:c r="AC37" s="3" t="n">
-        <x:v>1575960</x:v>
+        <x:v>1578675</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:29">
@@ -3884,7 +3884,7 @@
         <x:v>222599</x:v>
       </x:c>
       <x:c r="AC38" s="3" t="n">
-        <x:v>233655</x:v>
+        <x:v>236128</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:29">
@@ -3970,7 +3970,7 @@
         <x:v>132866</x:v>
       </x:c>
       <x:c r="AC39" s="3" t="n">
-        <x:v>140838</x:v>
+        <x:v>140965</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:29">
@@ -4056,7 +4056,7 @@
         <x:v>81325</x:v>
       </x:c>
       <x:c r="AC40" s="3" t="n">
-        <x:v>87767</x:v>
+        <x:v>87778</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:29">
@@ -4142,7 +4142,7 @@
         <x:v>11530</x:v>
       </x:c>
       <x:c r="AC41" s="3" t="n">
-        <x:v>9339</x:v>
+        <x:v>9344</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:29">
@@ -4228,7 +4228,7 @@
         <x:v>11115</x:v>
       </x:c>
       <x:c r="AC42" s="3" t="n">
-        <x:v>8938</x:v>
+        <x:v>8944</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:29">
@@ -4314,7 +4314,7 @@
         <x:v>11115</x:v>
       </x:c>
       <x:c r="AC43" s="3" t="n">
-        <x:v>8938</x:v>
+        <x:v>8944</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:29">
@@ -4572,7 +4572,7 @@
         <x:v>50406</x:v>
       </x:c>
       <x:c r="AC46" s="3" t="n">
-        <x:v>56156</x:v>
+        <x:v>56102</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:29">
@@ -4658,7 +4658,7 @@
         <x:v>560844</x:v>
       </x:c>
       <x:c r="AC47" s="3" t="n">
-        <x:v>577817</x:v>
+        <x:v>577894</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:29">
@@ -4744,7 +4744,7 @@
         <x:v>77545</x:v>
       </x:c>
       <x:c r="AC48" s="3" t="n">
-        <x:v>71495</x:v>
+        <x:v>71522</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:29">
@@ -4830,7 +4830,7 @@
         <x:v>381649</x:v>
       </x:c>
       <x:c r="AC49" s="3" t="n">
-        <x:v>391987</x:v>
+        <x:v>392037</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:29">
@@ -4916,7 +4916,7 @@
         <x:v>281042</x:v>
       </x:c>
       <x:c r="AC50" s="3" t="n">
-        <x:v>286179</x:v>
+        <x:v>287080</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:29">
@@ -5088,7 +5088,7 @@
         <x:v>281042</x:v>
       </x:c>
       <x:c r="AC52" s="3" t="n">
-        <x:v>286179</x:v>
+        <x:v>287080</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:29">
@@ -5174,7 +5174,7 @@
         <x:v>48006</x:v>
       </x:c>
       <x:c r="AC53" s="3" t="n">
-        <x:v>50312</x:v>
+        <x:v>50298</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:29">
@@ -5260,7 +5260,7 @@
         <x:v>9245</x:v>
       </x:c>
       <x:c r="AC54" s="3" t="n">
-        <x:v>9461</x:v>
+        <x:v>9685</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:29">
@@ -5346,7 +5346,7 @@
         <x:v>43355</x:v>
       </x:c>
       <x:c r="AC55" s="3" t="n">
-        <x:v>46035</x:v>
+        <x:v>44974</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:29">
@@ -5862,7 +5862,7 @@
         <x:v>-27140</x:v>
       </x:c>
       <x:c r="AC61" s="3" t="n">
-        <x:v>432786</x:v>
+        <x:v>442429</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:29">
@@ -5948,7 +5948,7 @@
         <x:v>39366</x:v>
       </x:c>
       <x:c r="AC62" s="3" t="n">
-        <x:v>44182</x:v>
+        <x:v>43322</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:29">
@@ -6034,7 +6034,7 @@
         <x:v>131109</x:v>
       </x:c>
       <x:c r="AC63" s="3" t="n">
-        <x:v>135287</x:v>
+        <x:v>134438</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:29">
@@ -6120,7 +6120,7 @@
         <x:v>132352</x:v>
       </x:c>
       <x:c r="AC64" s="3" t="n">
-        <x:v>137202</x:v>
+        <x:v>136302</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:29">
@@ -6206,7 +6206,7 @@
         <x:v>100395</x:v>
       </x:c>
       <x:c r="AC65" s="3" t="n">
-        <x:v>103689</x:v>
+        <x:v>102788</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:29">
@@ -6378,7 +6378,7 @@
         <x:v>-1243</x:v>
       </x:c>
       <x:c r="AC67" s="3" t="n">
-        <x:v>-1916</x:v>
+        <x:v>-1864</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:29">
@@ -6464,7 +6464,7 @@
         <x:v>-84105</x:v>
       </x:c>
       <x:c r="AC68" s="3" t="n">
-        <x:v>-90686</x:v>
+        <x:v>-90697</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:29">
@@ -6636,7 +6636,7 @@
         <x:v>-25422</x:v>
       </x:c>
       <x:c r="AC70" s="3" t="n">
-        <x:v>-27180</x:v>
+        <x:v>-27191</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:29">
@@ -7066,7 +7066,7 @@
         <x:v>1611313</x:v>
       </x:c>
       <x:c r="AC75" s="3" t="n">
-        <x:v>1620142</x:v>
+        <x:v>1621997</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:29">
@@ -7152,7 +7152,7 @@
         <x:v>-66506</x:v>
       </x:c>
       <x:c r="AC76" s="3" t="n">
-        <x:v>388605</x:v>
+        <x:v>399107</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:29">
@@ -7499,7 +7499,7 @@
         <x:v>1874837</x:v>
       </x:c>
       <x:c r="AC80" s="3" t="n">
-        <x:v>2379475</x:v>
+        <x:v>2410770</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:29">
@@ -7585,7 +7585,7 @@
         <x:v>514962</x:v>
       </x:c>
       <x:c r="AC81" s="3" t="n">
-        <x:v>850851</x:v>
+        <x:v>877245</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:29">
@@ -7671,7 +7671,7 @@
         <x:v>444598</x:v>
       </x:c>
       <x:c r="AC82" s="3" t="n">
-        <x:v>472727</x:v>
+        <x:v>472434</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <x:v>387255</x:v>
       </x:c>
       <x:c r="AC84" s="3" t="n">
-        <x:v>406722</x:v>
+        <x:v>406778</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:29">
@@ -7929,7 +7929,7 @@
         <x:v>387128</x:v>
       </x:c>
       <x:c r="AC85" s="3" t="n">
-        <x:v>501539</x:v>
+        <x:v>505311</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:29">
@@ -8015,7 +8015,7 @@
         <x:v>92628</x:v>
       </x:c>
       <x:c r="AC86" s="3" t="n">
-        <x:v>71795</x:v>
+        <x:v>71843</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:29">
@@ -8101,7 +8101,7 @@
         <x:v>85239</x:v>
       </x:c>
       <x:c r="AC87" s="3" t="n">
-        <x:v>66915</x:v>
+        <x:v>66962</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <x:v>210365</x:v>
       </x:c>
       <x:c r="AC89" s="3" t="n">
-        <x:v>229750</x:v>
+        <x:v>230337</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:29">
@@ -8359,7 +8359,7 @@
         <x:v>194963</x:v>
       </x:c>
       <x:c r="AC90" s="3" t="n">
-        <x:v>218882</x:v>
+        <x:v>219469</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:29">
@@ -8617,7 +8617,7 @@
         <x:v>59998</x:v>
       </x:c>
       <x:c r="AC93" s="3" t="n">
-        <x:v>180219</x:v>
+        <x:v>183335</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:29">
@@ -8703,7 +8703,7 @@
         <x:v>59075</x:v>
       </x:c>
       <x:c r="AC94" s="3" t="n">
-        <x:v>179260</x:v>
+        <x:v>181937</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:29">
@@ -8789,7 +8789,7 @@
         <x:v>923</x:v>
       </x:c>
       <x:c r="AC95" s="3" t="n">
-        <x:v>960</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <x:v>4430</x:v>
       </x:c>
       <x:c r="AC97" s="3" t="n">
-        <x:v>4606</x:v>
+        <x:v>4628</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:29">
@@ -9047,7 +9047,7 @@
         <x:v>2697</x:v>
       </x:c>
       <x:c r="AC98" s="3" t="n">
-        <x:v>2199</x:v>
+        <x:v>2139</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:29">
@@ -9219,7 +9219,7 @@
         <x:v>1279</x:v>
       </x:c>
       <x:c r="AC100" s="3" t="n">
-        <x:v>1259</x:v>
+        <x:v>1199</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:29">
@@ -9305,7 +9305,7 @@
         <x:v>1733</x:v>
       </x:c>
       <x:c r="AC101" s="3" t="n">
-        <x:v>2407</x:v>
+        <x:v>2489</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:29">
@@ -9391,7 +9391,7 @@
         <x:v>123845</x:v>
       </x:c>
       <x:c r="AC102" s="3" t="n">
-        <x:v>131334</x:v>
+        <x:v>130078</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:29">
@@ -9477,7 +9477,7 @@
         <x:v>16984</x:v>
       </x:c>
       <x:c r="AC103" s="3" t="n">
-        <x:v>16254</x:v>
+        <x:v>18875</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:29">
@@ -9907,7 +9907,7 @@
         <x:v>3755</x:v>
       </x:c>
       <x:c r="AC108" s="3" t="n">
-        <x:v>5713</x:v>
+        <x:v>5751</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:29">
@@ -9993,7 +9993,7 @@
         <x:v>8767</x:v>
       </x:c>
       <x:c r="AC109" s="3" t="n">
-        <x:v>9056</x:v>
+        <x:v>11339</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:29">
@@ -10079,7 +10079,7 @@
         <x:v>1656</x:v>
       </x:c>
       <x:c r="AC110" s="3" t="n">
-        <x:v>1485</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:29">
@@ -10251,7 +10251,7 @@
         <x:v>1894082</x:v>
       </x:c>
       <x:c r="AC112" s="3" t="n">
-        <x:v>1931883</x:v>
+        <x:v>1931535</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:29">
@@ -10337,7 +10337,7 @@
         <x:v>537890</x:v>
       </x:c>
       <x:c r="AC113" s="3" t="n">
-        <x:v>561648</x:v>
+        <x:v>565995</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:29">
@@ -10423,7 +10423,7 @@
         <x:v>267695</x:v>
       </x:c>
       <x:c r="AC114" s="3" t="n">
-        <x:v>292917</x:v>
+        <x:v>290811</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:29">
@@ -10509,7 +10509,7 @@
         <x:v>136955</x:v>
       </x:c>
       <x:c r="AC115" s="3" t="n">
-        <x:v>147605</x:v>
+        <x:v>147650</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:29">
@@ -10595,7 +10595,7 @@
         <x:v>23986</x:v>
       </x:c>
       <x:c r="AC116" s="3" t="n">
-        <x:v>20013</x:v>
+        <x:v>19720</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:29">
@@ -10681,7 +10681,7 @@
         <x:v>23104</x:v>
       </x:c>
       <x:c r="AC117" s="3" t="n">
-        <x:v>19129</x:v>
+        <x:v>18831</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:29">
@@ -10767,7 +10767,7 @@
         <x:v>23104</x:v>
       </x:c>
       <x:c r="AC118" s="3" t="n">
-        <x:v>19129</x:v>
+        <x:v>18831</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:29">
@@ -10939,7 +10939,7 @@
         <x:v>882</x:v>
       </x:c>
       <x:c r="AC120" s="3" t="n">
-        <x:v>884</x:v>
+        <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:29">
@@ -11025,7 +11025,7 @@
         <x:v>79968</x:v>
       </x:c>
       <x:c r="AC121" s="3" t="n">
-        <x:v>87159</x:v>
+        <x:v>86831</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:29">
@@ -11111,7 +11111,7 @@
         <x:v>579732</x:v>
       </x:c>
       <x:c r="AC122" s="3" t="n">
-        <x:v>597375</x:v>
+        <x:v>596864</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:29">
@@ -11197,7 +11197,7 @@
         <x:v>89036</x:v>
       </x:c>
       <x:c r="AC123" s="3" t="n">
-        <x:v>86404</x:v>
+        <x:v>86135</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:29">
@@ -11283,7 +11283,7 @@
         <x:v>123320</x:v>
       </x:c>
       <x:c r="AC124" s="3" t="n">
-        <x:v>129541</x:v>
+        <x:v>128391</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:29">
@@ -11627,7 +11627,7 @@
         <x:v>70478</x:v>
       </x:c>
       <x:c r="AC128" s="3" t="n">
-        <x:v>73795</x:v>
+        <x:v>73461</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:29">
@@ -11713,7 +11713,7 @@
         <x:v>9487</x:v>
       </x:c>
       <x:c r="AC129" s="3" t="n">
-        <x:v>9711</x:v>
+        <x:v>9956</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:29">
@@ -11799,7 +11799,7 @@
         <x:v>43355</x:v>
       </x:c>
       <x:c r="AC130" s="3" t="n">
-        <x:v>46035</x:v>
+        <x:v>44974</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:29">
@@ -11885,7 +11885,7 @@
         <x:v>55500</x:v>
       </x:c>
       <x:c r="AC131" s="3" t="n">
-        <x:v>9222</x:v>
+        <x:v>9138</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:29">
@@ -11971,7 +11971,7 @@
         <x:v>54433</x:v>
       </x:c>
       <x:c r="AC132" s="3" t="n">
-        <x:v>8031</x:v>
+        <x:v>7946</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:29">
@@ -12143,7 +12143,7 @@
         <x:v>11209</x:v>
       </x:c>
       <x:c r="AC134" s="3" t="n">
-        <x:v>3289</x:v>
+        <x:v>3205</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:29">
@@ -12315,7 +12315,7 @@
         <x:v>-19245</x:v>
       </x:c>
       <x:c r="AC136" s="3" t="n">
-        <x:v>447592</x:v>
+        <x:v>479235</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:29">
@@ -12401,7 +12401,7 @@
         <x:v>69929</x:v>
       </x:c>
       <x:c r="AC137" s="3" t="n">
-        <x:v>71098</x:v>
+        <x:v>69036</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:29">
@@ -12487,7 +12487,7 @@
         <x:v>217303</x:v>
       </x:c>
       <x:c r="AC138" s="3" t="n">
-        <x:v>221040</x:v>
+        <x:v>219524</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:29">
@@ -12573,7 +12573,7 @@
         <x:v>221932</x:v>
       </x:c>
       <x:c r="AC139" s="3" t="n">
-        <x:v>226368</x:v>
+        <x:v>227537</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:29">
@@ -12659,7 +12659,7 @@
         <x:v>189975</x:v>
       </x:c>
       <x:c r="AC140" s="3" t="n">
-        <x:v>192854</x:v>
+        <x:v>194024</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:29">
@@ -12831,7 +12831,7 @@
         <x:v>-4629</x:v>
       </x:c>
       <x:c r="AC142" s="3" t="n">
-        <x:v>-5328</x:v>
+        <x:v>-8013</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:29">
@@ -12917,7 +12917,7 @@
         <x:v>-139735</x:v>
       </x:c>
       <x:c r="AC143" s="3" t="n">
-        <x:v>-150523</x:v>
+        <x:v>-150569</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:29">
@@ -13003,7 +13003,7 @@
         <x:v>-111533</x:v>
       </x:c>
       <x:c r="AC144" s="3" t="n">
-        <x:v>-120424</x:v>
+        <x:v>-120459</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:29">
@@ -13089,7 +13089,7 @@
         <x:v>-25422</x:v>
       </x:c>
       <x:c r="AC145" s="3" t="n">
-        <x:v>-27180</x:v>
+        <x:v>-27191</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:29">
@@ -13261,7 +13261,7 @@
         <x:v>-7639</x:v>
       </x:c>
       <x:c r="AC147" s="3" t="n">
-        <x:v>581</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:29">
@@ -13347,7 +13347,7 @@
         <x:v>1632</x:v>
       </x:c>
       <x:c r="AC148" s="3" t="n">
-        <x:v>2603</x:v>
+        <x:v>2103</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:29">
@@ -13519,7 +13519,7 @@
         <x:v>1964011</x:v>
       </x:c>
       <x:c r="AC150" s="3" t="n">
-        <x:v>2002981</x:v>
+        <x:v>2000571</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:29">
@@ -13605,7 +13605,7 @@
         <x:v>-89174</x:v>
       </x:c>
       <x:c r="AC151" s="3" t="n">
-        <x:v>376494</x:v>
+        <x:v>410199</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:29">
@@ -13691,7 +13691,7 @@
         <x:v>18831</x:v>
       </x:c>
       <x:c r="AC152" s="3" t="n">
-        <x:v>19757</x:v>
+        <x:v>19493</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:29">
@@ -13777,7 +13777,7 @@
         <x:v>10902</x:v>
       </x:c>
       <x:c r="AC153" s="3" t="n">
-        <x:v>11446</x:v>
+        <x:v>11323</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:29">
